--- a/01 Adminstration/03 Tidsplan.xlsx
+++ b/01 Adminstration/03 Tidsplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\03 Adminstration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\01 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CE809-7EA5-4528-AF49-8F3375B61156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D73BF-3F69-44C5-8302-3A963E6EA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,12 +529,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,6 +558,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +892,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +908,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -937,16 +950,16 @@
       <c r="N1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -961,9 +974,9 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -978,7 +991,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -1001,9 +1014,9 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="20"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1018,7 +1031,7 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3"/>
@@ -1037,7 +1050,7 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1054,7 +1067,7 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
@@ -1073,7 +1086,7 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1090,7 +1103,7 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
@@ -1113,9 +1126,9 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="8"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
@@ -1132,7 +1145,7 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
@@ -1151,7 +1164,7 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1168,7 +1181,7 @@
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
@@ -1187,7 +1200,7 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1204,7 +1217,7 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3"/>
@@ -1223,7 +1236,7 @@
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1237,10 +1250,10 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="23"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1262,7 +1275,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1276,10 +1289,10 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="23"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="10"/>
@@ -1300,7 +1313,7 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:16" ht="4.1500000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1322,7 +1335,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1333,165 +1346,165 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -1735,6 +1748,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
@@ -1743,15 +1765,6 @@
     <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1774,6 +1787,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
@@ -1792,14 +1813,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" enabled="0" method="" siteId="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" removed="1"/>

--- a/01 Adminstration/03 Tidsplan.xlsx
+++ b/01 Adminstration/03 Tidsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\01 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D73BF-3F69-44C5-8302-3A963E6EA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF2E36-D498-46C9-A725-4EBE28714749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
@@ -548,6 +548,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,18 +570,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +892,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -974,9 +974,9 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -991,21 +991,21 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1014,10 +1014,10 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1031,7 +1031,7 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3"/>
@@ -1050,10 +1050,10 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -1067,7 +1067,7 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
@@ -1086,10 +1086,10 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -1103,7 +1103,7 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
@@ -1126,10 +1126,10 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
       <c r="G11" s="20"/>
@@ -1145,7 +1145,7 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
@@ -1164,7 +1164,7 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1181,7 +1181,7 @@
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
@@ -1200,7 +1200,7 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1217,7 +1217,7 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3"/>
@@ -1236,7 +1236,7 @@
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1253,7 +1253,7 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1292,7 +1292,7 @@
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="10"/>
@@ -1313,7 +1313,7 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:16" ht="4.1500000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1541,6 +1541,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FE580F2D3026B143BDF291C5137D2DA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbf9c7ba37e5329923f2631dbd7f57d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eb01566-652b-4477-b28c-3e66da18d344" xmlns:ns3="1ef46024-2ca0-4db1-9ed8-b314520bddf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51e2ef3359a75a136c9bc01b553e9c72" ns2:_="" ns3:_="">
     <xsd:import namespace="9eb01566-652b-4477-b28c-3e66da18d344"/>
@@ -1747,27 +1767,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5fbc24e0-ed7e-44d1-93b2-2d3381b4859a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
+    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1786,33 +1813,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5fbc24e0-ed7e-44d1-93b2-2d3381b4859a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
-    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" enabled="0" method="" siteId="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" removed="1"/>

--- a/01 Adminstration/03 Tidsplan.xlsx
+++ b/01 Adminstration/03 Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\01 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF2E36-D498-46C9-A725-4EBE28714749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F787E27-1E99-417B-8C75-18F57FE591A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Plan</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Påbegyndelse af ugemøder </t>
+  </si>
+  <si>
+    <t>SLUT Prototypeudvikling her</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1093,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="8"/>
@@ -1130,7 +1133,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -1332,6 +1335,9 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1541,26 +1547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FE580F2D3026B143BDF291C5137D2DA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbf9c7ba37e5329923f2631dbd7f57d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eb01566-652b-4477-b28c-3e66da18d344" xmlns:ns3="1ef46024-2ca0-4db1-9ed8-b314520bddf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51e2ef3359a75a136c9bc01b553e9c72" ns2:_="" ns3:_="">
     <xsd:import namespace="9eb01566-652b-4477-b28c-3e66da18d344"/>
@@ -1767,7 +1753,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
+    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
@@ -1786,33 +1819,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
-    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" enabled="0" method="" siteId="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" removed="1"/>

--- a/01 Adminstration/03 Tidsplan.xlsx
+++ b/01 Adminstration/03 Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\01 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F787E27-1E99-417B-8C75-18F57FE591A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0034F-71C3-475A-8B32-AB2A8E3B8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
@@ -894,9 +894,7 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1094,7 +1092,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="20"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1134,7 +1132,7 @@
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1547,6 +1545,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FE580F2D3026B143BDF291C5137D2DA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbf9c7ba37e5329923f2631dbd7f57d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eb01566-652b-4477-b28c-3e66da18d344" xmlns:ns3="1ef46024-2ca0-4db1-9ed8-b314520bddf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51e2ef3359a75a136c9bc01b553e9c72" ns2:_="" ns3:_="">
     <xsd:import namespace="9eb01566-652b-4477-b28c-3e66da18d344"/>
@@ -1753,27 +1771,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5fbc24e0-ed7e-44d1-93b2-2d3381b4859a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
+    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1792,33 +1817,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5fbc24e0-ed7e-44d1-93b2-2d3381b4859a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
-    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" enabled="0" method="" siteId="{f5dbba49-ce06-496f-ac3e-0cf14361d934}" removed="1"/>
